--- a/Game Design/particle_effects_list.xlsx
+++ b/Game Design/particle_effects_list.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="particle effects" sheetId="1" r:id="rId1"/>
+    <sheet name="assets" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -73,6 +73,222 @@
   </si>
   <si>
     <t>trace on tile ending on enemy (red)</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>copper resource</t>
+  </si>
+  <si>
+    <t>3D model</t>
+  </si>
+  <si>
+    <t>2D icon</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>as a player, I can see the resource on teh world map as 3D asset on a map tile, as well as as a 2D icon in my inventory</t>
+  </si>
+  <si>
+    <t>N002</t>
+  </si>
+  <si>
+    <t>move command</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>move command stack</t>
+  </si>
+  <si>
+    <t>UI, unit command, world map</t>
+  </si>
+  <si>
+    <t>UI, unit command, world map and combat map</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>point unit in direction</t>
+  </si>
+  <si>
+    <t>arrow like, shows direction, not really particly effect, could be just a 2D or 3D arrow;</t>
+  </si>
+  <si>
+    <t>hexagon outline unit position front</t>
+  </si>
+  <si>
+    <t>hexagon outline unit position back</t>
+  </si>
+  <si>
+    <t>the 3 hexagon sides in front of your unit are marked in blue</t>
+  </si>
+  <si>
+    <t>the 3 hexagon sides in the back of your unit are marked in red</t>
+  </si>
+  <si>
+    <t>move range outline</t>
+  </si>
+  <si>
+    <t>for combat map and world map, markes the move range of th eactive unit</t>
+  </si>
+  <si>
+    <t>info pop up</t>
+  </si>
+  <si>
+    <t>transparent info pop up for various info on units, terrain, items, for world and comabet mouse use</t>
+  </si>
+  <si>
+    <t>attack ranged</t>
+  </si>
+  <si>
+    <t>attack melee</t>
+  </si>
+  <si>
+    <t>special attack</t>
+  </si>
+  <si>
+    <t>attack focus</t>
+  </si>
+  <si>
+    <t>defence focus</t>
+  </si>
+  <si>
+    <t>UI, unit command, combat map</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>Blood splash</t>
+  </si>
+  <si>
+    <t>combat map, blood splashing from a hit unit, maybe in multiple variations if possible</t>
+  </si>
+  <si>
+    <t>Claw slash</t>
+  </si>
+  <si>
+    <t>combat map, effect of oponents who slash with claws, 3 red lines appear on unit and quickly fade away</t>
+  </si>
+  <si>
+    <t>dazed effect</t>
+  </si>
+  <si>
+    <t>Monster special attack glow</t>
+  </si>
+  <si>
+    <t>appears around enemy unit when they are performing special attack, maybe use just rimlight in red color, or make a whole particle effect for it, can be used for all enemy unit special attacks</t>
+  </si>
+  <si>
+    <t>unit heavy injured</t>
+  </si>
+  <si>
+    <t>UFB, unit status icon, combat map, blunt weapons sometimes cause, while the effect is active on a unit he will suffer a penalty on his attack and defense strength</t>
+  </si>
+  <si>
+    <t>UFB, unit status icon, combat map, unit knocked down, but not yet dead</t>
+  </si>
+  <si>
+    <t>help friendly unit</t>
   </si>
 </sst>
 </file>
@@ -417,16 +633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,6 +719,163 @@
       </c>
       <c r="F5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -512,12 +885,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="105.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
